--- a/Project-allocation-details.xlsx
+++ b/Project-allocation-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaumarjya.banerjee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003CBA4-0FFE-4EAC-A930-C3BDE21D88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600FA9CD-6EFC-40E1-B6DD-3C2DE47FA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 Doctor Appointment" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="160">
   <si>
     <t xml:space="preserve">Sl No. </t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>bwumca22121@brainwareuniversity.ac.in</t>
+  </si>
+  <si>
+    <t>Sinthia Golder</t>
+  </si>
+  <si>
+    <t>BWU/MCA/22/070</t>
+  </si>
+  <si>
+    <t>Jayanta Mallick</t>
+  </si>
+  <si>
+    <t>BWU/BCA/21/186</t>
   </si>
 </sst>
 </file>
@@ -864,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1231,6 +1243,20 @@
         <v>105</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12">
+        <v>6291185643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1241,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001BE4A9-D548-4119-9CBD-14C569633975}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1613,15 +1639,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C78C118-9C1E-4C51-BA00-442A0932F3E1}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="21.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.26171875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1978,8 +2005,23 @@
         <v>44</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8100299688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1987,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8687EF5-28DB-481F-B2CC-90A33F433E52}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
